--- a/medicine/Psychotrope/Château_de_Preignes-le-Vieux/Château_de_Preignes-le-Vieux.xlsx
+++ b/medicine/Psychotrope/Château_de_Preignes-le-Vieux/Château_de_Preignes-le-Vieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Preignes-le-Vieux</t>
+          <t>Château_de_Preignes-le-Vieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château de Preignes-le-Vieux est un monument historique de Vias dans l'Hérault, en France. Il a été inscrit au titre de Monument historique en 1995[1]. C'est un domaine viticole produisant des vins des terrasses de Béziers.
+Le château de Preignes-le-Vieux est un monument historique de Vias dans l'Hérault, en France. Il a été inscrit au titre de Monument historique en 1995. C'est un domaine viticole produisant des vins des terrasses de Béziers.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Preignes-le-Vieux</t>
+          <t>Château_de_Preignes-le-Vieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine est situé sur le cartulaire d'Agde (Version Raymonde de Foreville au 30 janvier 1115) sous l'appellation de « ecclesia  Sancti  Petri de Prenias » ; l’étymologie vient du latin médiéval prunias (du Cange V, p.497 dérivé de prunias, « prunier », altéré sous l’influence du verbe prendre). Quant à Preissan (situé sur la commune d’Agde) cité sur le cartulaire d’Agde le 25 février 936 (version Raymonde de Foreville), nous trouvons infra terminium de villa Preissano (étymologies : domaine gallo-romain surnom latin Priscus + suffixe -i-anum ). Par conséquent, Preissan et Preignes sont deux domaines dissemblables. En 1965, les vestiges d'une villa romaine ont été découverts, avec des restes d'amphores de 2 000 ans.
 Le domaine est exploité comme paroisse et demeure seigneuriale par l'évêque d'Agde. La forteresse est construite entre 1202 et 1220 par le vicomte Guillaume de Pézenas à côté d'une chapelle de la fin du XIIe siècle pour faire front à d'éventuels assaillants comme les cathares ou le Prince noir.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Preignes-le-Vieux</t>
+          <t>Château_de_Preignes-le-Vieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Le château et les bâtiments annexes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine est situé entre Agde et Béziers, près du Libron, à environ 5 km au nord de la mer Méditerranée.
 Le château présente un corps de logis principal à trois étages avec des tours rondes aux angles nord et ouest. Une tour carrée avec un escalier à vis est adossée en milieu de la façade sud-est. Au devant, une cour est fermée à l'est et au sud par une courtine et un grand portail sud-est orné d'une grille, et renforcés par une tour ronde aux angles sud et est. L'ensemble est bâti en petit et moyen appareil de basalte. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Preignes-le-Vieux</t>
+          <t>Château_de_Preignes-le-Vieux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Le domaine viticole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">150 ha de vignes sont plantés sur des terres argilo-graveleuses et basaltiques. Une vingtaine de cépages sont exploités tel la syrah, le grenache, le merlot, le cabernet-sauvignon, le chardonnay, le viognier ou plus récemment le vermentino et le marselan.
 Le domaine produit des vins rouges, blancs et rosés en appellation IGP coteaux-de-béziers (anciennement coteaux-du-libron) ou pays d'Oc.
